--- a/InputData/indst/PPRiEYFUfICaWHR/Pot Perc Red in End Year Fuel Use fr Inc Cogen and WHR.xlsx
+++ b/InputData/indst/PPRiEYFUfICaWHR/Pot Perc Red in End Year Fuel Use fr Inc Cogen and WHR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055"/>
+    <workbookView xWindow="360" yWindow="108" windowWidth="21072" windowHeight="11052"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Source:</t>
   </si>
@@ -60,7 +60,37 @@
     <t>Pot Perc Red in Fuel Use</t>
   </si>
   <si>
-    <t>Cogen and Waste Heat Rec</t>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>We do not apply this potential to Agriculture, due to its lack of large, heat-generating,</t>
+  </si>
+  <si>
+    <t>stationary equipment compared to other industries.</t>
+  </si>
+  <si>
+    <t>cement and other carbonates</t>
+  </si>
+  <si>
+    <t>natural gas and petroleum systems</t>
+  </si>
+  <si>
+    <t>iron and steel</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>mining</t>
+  </si>
+  <si>
+    <t>waste management</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>other industries</t>
   </si>
 </sst>
 </file>
@@ -69,9 +99,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +128,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,7 +173,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -155,7 +191,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -459,14 +500,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -500,6 +541,21 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -517,10 +573,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,27 +639,89 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="11">
-        <f>Data!B7</f>
+        <f>Data!B$7</f>
+        <v>3.9344262295081964E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11">
+        <f>Data!B$7</f>
+        <v>3.9344262295081964E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11">
+        <f>Data!B$7</f>
+        <v>3.9344262295081964E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="11">
+        <f>Data!B$7</f>
+        <v>3.9344262295081964E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="11">
+        <f>Data!B$7</f>
+        <v>3.9344262295081964E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11">
+        <f>Data!B$7</f>
+        <v>3.9344262295081964E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11">
+        <f>Data!B$7</f>
         <v>3.9344262295081964E-2</v>
       </c>
     </row>

--- a/InputData/indst/PPRiEYFUfICaWHR/Pot Perc Red in End Year Fuel Use fr Inc Cogen and WHR.xlsx
+++ b/InputData/indst/PPRiEYFUfICaWHR/Pot Perc Red in End Year Fuel Use fr Inc Cogen and WHR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="108" windowWidth="21072" windowHeight="11052"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -504,10 +504,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,10 +573,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="8">
-        <v>2030</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -625,8 +625,8 @@
         <v>9</v>
       </c>
       <c r="B7" s="7">
-        <f>B5*(2050-B6)/(2050-2010)</f>
-        <v>3.9344262295081964E-2</v>
+        <f>B5*(B6-2010)/(2050-2010)</f>
+        <v>7.8688524590163927E-2</v>
       </c>
     </row>
   </sheetData>
@@ -643,72 +643,72 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="11">
         <f>Data!B$7</f>
-        <v>3.9344262295081964E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="11">
         <f>Data!B$7</f>
-        <v>3.9344262295081964E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="11">
         <f>Data!B$7</f>
-        <v>3.9344262295081964E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="11">
         <f>Data!B$7</f>
-        <v>3.9344262295081964E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="11">
         <f>Data!B$7</f>
-        <v>3.9344262295081964E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="11">
         <f>Data!B$7</f>
-        <v>3.9344262295081964E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="11">
         <f>Data!B$7</f>
-        <v>3.9344262295081964E-2</v>
+        <v>7.8688524590163927E-2</v>
       </c>
     </row>
   </sheetData>
